--- a/MyStoreProject/Manual Test cases.xlsx
+++ b/MyStoreProject/Manual Test cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>My Store Application</t>
   </si>
@@ -143,6 +143,32 @@
   </si>
   <si>
     <t>User should be able to add the product in the cart</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Smole
+Smoke</t>
+  </si>
+  <si>
+    <t>Sanity, Smoke</t>
+  </si>
+  <si>
+    <t>Smoke
+Smoke</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Regression,Sanity</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -250,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -272,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,179 +607,236 @@
     <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
